--- a/data/trans_orig/P1402-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41430525-A15F-4295-B94D-5730207E9063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D8EBC8-D83C-4223-AB53-328CC8762D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D964C0B-F888-4763-9527-3F2EDA88FA47}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3652671-F39A-40E0-98B6-7AEFBDE23542}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="627">
   <si>
     <t>Población con diagnóstico de diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,25 +95,25 @@
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -122,25 +122,25 @@
     <t>95,96%</t>
   </si>
   <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,55 +161,55 @@
     <t>5,21%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -227,55 +227,55 @@
     <t>5,68%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>94,32%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
   <si>
     <t>93,18%</t>
   </si>
   <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -293,16 +293,16 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>3,64%</t>
+    <t>3,36%</t>
   </si>
   <si>
     <t>7,94%</t>
@@ -311,19 +311,19 @@
     <t>5,03%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
   </si>
   <si>
     <t>94,55%</t>
@@ -332,16 +332,16 @@
     <t>92,06%</t>
   </si>
   <si>
-    <t>96,36%</t>
+    <t>96,64%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -359,1549 +359,1567 @@
     <t>5,59%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>94,07%</t>
   </si>
   <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
   </si>
   <si>
     <t>91,67%</t>
   </si>
   <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>91,61%</t>
   </si>
   <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>90,2%</t>
   </si>
   <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
   </si>
   <si>
     <t>91,65%</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
     <t>89,08%</t>
   </si>
   <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
     <t>91,17%</t>
   </si>
   <si>
-    <t>91,9%</t>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B8A077-8E0E-48FC-9C23-830AF38AE57F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050CE097-8D56-4B7B-80EA-35E258202E8D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3930,13 +3948,13 @@
         <v>49591</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H33" s="7">
         <v>47</v>
@@ -3945,13 +3963,13 @@
         <v>51633</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="M33" s="7">
         <v>98</v>
@@ -3960,13 +3978,13 @@
         <v>101224</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3999,13 @@
         <v>694204</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H34" s="7">
         <v>698</v>
@@ -3996,13 +4014,13 @@
         <v>731878</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M34" s="7">
         <v>1383</v>
@@ -4011,13 +4029,13 @@
         <v>1426082</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,7 +4109,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4106,7 +4124,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4121,7 +4139,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4154,13 @@
         <v>185467</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H37" s="7">
         <v>224</v>
@@ -4151,13 +4169,13 @@
         <v>229249</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M37" s="7">
         <v>416</v>
@@ -4166,13 +4184,13 @@
         <v>414716</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4205,13 @@
         <v>3091077</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H38" s="7">
         <v>3073</v>
@@ -4202,28 +4220,28 @@
         <v>3149949</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M38" s="7">
         <v>6095</v>
       </c>
       <c r="N38" s="7">
-        <v>6241024</v>
+        <v>6241025</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,7 +4283,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>34</v>
@@ -4279,7 +4297,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4303,7 +4321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1853B17-E60D-4C36-B45F-A9EC08745A69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758ABC36-8BE3-438A-AE92-F1AC9A73404D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4320,7 +4338,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4425,39 +4443,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,39 +4488,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,39 +4533,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,39 +4578,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,7 +4648,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4660,13 +4678,13 @@
         <v>35916</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H9" s="7">
         <v>54</v>
@@ -4675,13 +4693,13 @@
         <v>57653</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M9" s="7">
         <v>86</v>
@@ -4690,13 +4708,13 @@
         <v>93569</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4729,13 @@
         <v>469611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
         <v>426</v>
@@ -4726,13 +4744,13 @@
         <v>466112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>866</v>
@@ -4741,13 +4759,13 @@
         <v>935723</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,7 +4839,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4836,7 +4854,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4866,13 +4884,13 @@
         <v>32415</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -4881,13 +4899,13 @@
         <v>35128</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -4896,13 +4914,13 @@
         <v>67543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4935,13 @@
         <v>291631</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>285</v>
@@ -4932,13 +4950,13 @@
         <v>305892</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>574</v>
@@ -4947,13 +4965,13 @@
         <v>597523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,7 +5075,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5090,13 @@
         <v>44575</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -5087,13 +5105,13 @@
         <v>51315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -5102,13 +5120,13 @@
         <v>95890</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5141,13 @@
         <v>624145</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H18" s="7">
         <v>577</v>
@@ -5138,13 +5156,13 @@
         <v>624881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M18" s="7">
         <v>1162</v>
@@ -5153,13 +5171,13 @@
         <v>1249026</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,7 +5251,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5248,7 +5266,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5278,13 +5296,13 @@
         <v>19957</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -5293,13 +5311,13 @@
         <v>27957</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="M21" s="7">
         <v>45</v>
@@ -5308,13 +5326,13 @@
         <v>47914</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5347,13 @@
         <v>192661</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>185</v>
@@ -5344,13 +5362,13 @@
         <v>191634</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -5359,13 +5377,13 @@
         <v>384295</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,7 +5457,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5484,13 +5502,13 @@
         <v>20425</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -5499,13 +5517,13 @@
         <v>28451</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>277</v>
+        <v>134</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -5514,13 +5532,13 @@
         <v>48876</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5553,13 @@
         <v>253556</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>241</v>
@@ -5550,13 +5568,13 @@
         <v>249645</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>482</v>
@@ -5565,13 +5583,13 @@
         <v>503201</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,7 +5693,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5708,13 @@
         <v>54454</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -5705,13 +5723,13 @@
         <v>58241</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>106</v>
@@ -5720,13 +5738,13 @@
         <v>112695</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5759,13 @@
         <v>608334</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="H30" s="7">
         <v>581</v>
@@ -5756,13 +5774,13 @@
         <v>635612</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="M30" s="7">
         <v>1148</v>
@@ -5771,13 +5789,13 @@
         <v>1243946</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,7 +5869,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5866,7 +5884,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5896,13 +5914,13 @@
         <v>49384</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="H33" s="7">
         <v>45</v>
@@ -5911,13 +5929,13 @@
         <v>48458</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="M33" s="7">
         <v>89</v>
@@ -5926,13 +5944,13 @@
         <v>97843</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>185</v>
+        <v>324</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,13 +5965,13 @@
         <v>729714</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="H34" s="7">
         <v>711</v>
@@ -5962,13 +5980,13 @@
         <v>774120</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="M34" s="7">
         <v>1384</v>
@@ -5977,13 +5995,13 @@
         <v>1503833</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,7 +6075,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6072,7 +6090,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6087,7 +6105,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6120,13 @@
         <v>257126</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>322</v>
+        <v>168</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="H37" s="7">
         <v>290</v>
@@ -6117,13 +6135,13 @@
         <v>307203</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="M37" s="7">
         <v>526</v>
@@ -6132,13 +6150,13 @@
         <v>564329</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>328</v>
+        <v>213</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6171,13 @@
         <v>3169653</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>332</v>
+        <v>176</v>
       </c>
       <c r="H38" s="7">
         <v>3006</v>
@@ -6168,28 +6186,28 @@
         <v>3247895</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="M38" s="7">
         <v>5979</v>
       </c>
       <c r="N38" s="7">
-        <v>6417548</v>
+        <v>6417549</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>338</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,7 +6249,7 @@
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>34</v>
@@ -6245,7 +6263,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6269,7 +6287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992C6D77-1705-4CA1-A728-9D67970D3CDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C300E4E6-21F6-4D7A-925D-D02D7B6CC076}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6286,7 +6304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6414,7 +6432,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6429,7 +6447,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6462,13 @@
         <v>21184</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -6459,13 +6477,13 @@
         <v>15406</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -6474,13 +6492,13 @@
         <v>36590</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,13 +6513,13 @@
         <v>272577</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="H6" s="7">
         <v>263</v>
@@ -6510,13 +6528,13 @@
         <v>273297</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="M6" s="7">
         <v>509</v>
@@ -6525,13 +6543,13 @@
         <v>545874</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>357</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>92</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,7 +6623,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6620,7 +6638,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6650,13 +6668,13 @@
         <v>38432</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>227</v>
+        <v>370</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -6665,13 +6683,13 @@
         <v>56334</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="M9" s="7">
         <v>87</v>
@@ -6680,13 +6698,13 @@
         <v>94765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,13 +6719,13 @@
         <v>464143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>435</v>
@@ -6716,13 +6734,13 @@
         <v>466750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>872</v>
@@ -6731,13 +6749,13 @@
         <v>930894</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6826,7 +6844,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6841,7 +6859,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,13 +6874,13 @@
         <v>14513</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>388</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -6871,13 +6889,13 @@
         <v>24522</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -6886,13 +6904,13 @@
         <v>39035</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,13 +6925,13 @@
         <v>304052</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>396</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
         <v>310</v>
@@ -6922,13 +6940,13 @@
         <v>311787</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="M14" s="7">
         <v>628</v>
@@ -6937,13 +6955,13 @@
         <v>615839</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>401</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,7 +7035,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7047,7 +7065,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,13 +7080,13 @@
         <v>44503</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -7077,13 +7095,13 @@
         <v>26270</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -7092,13 +7110,13 @@
         <v>70773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,13 +7131,13 @@
         <v>325461</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="H18" s="7">
         <v>334</v>
@@ -7128,13 +7146,13 @@
         <v>361013</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="M18" s="7">
         <v>642</v>
@@ -7143,13 +7161,13 @@
         <v>686474</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7223,7 +7241,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7238,7 +7256,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7253,7 +7271,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,13 +7286,13 @@
         <v>13041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -7283,13 +7301,13 @@
         <v>19600</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>412</v>
+        <v>227</v>
       </c>
       <c r="M21" s="7">
         <v>33</v>
@@ -7298,13 +7316,13 @@
         <v>32641</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>168</v>
+        <v>428</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>413</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7337,13 @@
         <v>198180</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -7334,13 +7352,13 @@
         <v>198987</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>235</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>402</v>
@@ -7349,13 +7367,13 @@
         <v>397167</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>420</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>176</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,7 +7447,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7444,7 +7462,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7474,13 +7492,13 @@
         <v>18203</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -7489,13 +7507,13 @@
         <v>19379</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>439</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -7504,13 +7522,13 @@
         <v>37582</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>107</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7543,13 @@
         <v>244920</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>246</v>
@@ -7540,13 +7558,13 @@
         <v>253736</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>485</v>
@@ -7555,13 +7573,13 @@
         <v>498656</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>449</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,7 +7653,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7680,13 +7698,13 @@
         <v>74272</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="H29" s="7">
         <v>50</v>
@@ -7695,13 +7713,13 @@
         <v>60780</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>437</v>
+        <v>148</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>438</v>
+        <v>375</v>
       </c>
       <c r="M29" s="7">
         <v>117</v>
@@ -7710,13 +7728,13 @@
         <v>135053</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>156</v>
+        <v>456</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,13 +7749,13 @@
         <v>582286</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="H30" s="7">
         <v>596</v>
@@ -7746,13 +7764,13 @@
         <v>630514</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>445</v>
+        <v>382</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>446</v>
+        <v>157</v>
       </c>
       <c r="M30" s="7">
         <v>1109</v>
@@ -7761,13 +7779,13 @@
         <v>1212799</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,7 +7874,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7886,13 +7904,13 @@
         <v>73568</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>397</v>
+        <v>467</v>
       </c>
       <c r="H33" s="7">
         <v>62</v>
@@ -7901,13 +7919,13 @@
         <v>74888</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>452</v>
+        <v>154</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="M33" s="7">
         <v>138</v>
@@ -7916,13 +7934,13 @@
         <v>148456</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7937,13 +7955,13 @@
         <v>705015</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>404</v>
+        <v>474</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="H34" s="7">
         <v>693</v>
@@ -7952,13 +7970,13 @@
         <v>751279</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>461</v>
+        <v>163</v>
       </c>
       <c r="M34" s="7">
         <v>1367</v>
@@ -7967,13 +7985,13 @@
         <v>1456294</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,7 +8065,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8062,7 +8080,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8077,7 +8095,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8092,13 +8110,13 @@
         <v>297716</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>465</v>
+        <v>173</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="H37" s="7">
         <v>257</v>
@@ -8107,13 +8125,13 @@
         <v>297179</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>468</v>
+        <v>319</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="M37" s="7">
         <v>555</v>
@@ -8122,13 +8140,13 @@
         <v>594895</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>471</v>
+        <v>336</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>473</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8143,13 +8161,13 @@
         <v>3096634</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>474</v>
+        <v>180</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H38" s="7">
         <v>3081</v>
@@ -8158,13 +8176,13 @@
         <v>3247363</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>477</v>
+        <v>327</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="M38" s="7">
         <v>6014</v>
@@ -8173,13 +8191,13 @@
         <v>6343997</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>480</v>
+        <v>343</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>481</v>
+        <v>115</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,7 +8253,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8259,7 +8277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DD0A17-8C54-4E3A-8C08-6105FC67B500}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE40BEB-426E-4283-A0B9-9C7A9C75A193}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8276,7 +8294,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8389,7 +8407,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8419,7 +8437,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8434,13 +8452,13 @@
         <v>30300</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>393</v>
+        <v>493</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
@@ -8449,13 +8467,13 @@
         <v>21795</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="M5" s="7">
         <v>94</v>
@@ -8464,13 +8482,13 @@
         <v>52095</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>496</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8485,13 +8503,13 @@
         <v>229998</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>399</v>
+        <v>500</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="H6" s="7">
         <v>488</v>
@@ -8500,13 +8518,13 @@
         <v>249608</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>496</v>
+        <v>198</v>
       </c>
       <c r="M6" s="7">
         <v>775</v>
@@ -8515,13 +8533,13 @@
         <v>479605</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>213</v>
+        <v>504</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8610,7 +8628,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8625,7 +8643,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8640,13 +8658,13 @@
         <v>43765</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>501</v>
+        <v>288</v>
       </c>
       <c r="H9" s="7">
         <v>71</v>
@@ -8655,13 +8673,13 @@
         <v>47667</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="M9" s="7">
         <v>110</v>
@@ -8670,13 +8688,13 @@
         <v>91431</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>259</v>
+        <v>492</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>45</v>
+        <v>513</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8691,13 +8709,13 @@
         <v>474462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>506</v>
+        <v>295</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="H10" s="7">
         <v>645</v>
@@ -8706,13 +8724,13 @@
         <v>506174</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="M10" s="7">
         <v>987</v>
@@ -8721,13 +8739,13 @@
         <v>980637</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>501</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8831,7 +8849,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8846,13 +8864,13 @@
         <v>35603</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>309</v>
+        <v>456</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -8861,13 +8879,13 @@
         <v>35201</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>352</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>516</v>
+        <v>405</v>
       </c>
       <c r="M13" s="7">
         <v>113</v>
@@ -8876,13 +8894,13 @@
         <v>70804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>517</v>
+        <v>438</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8897,13 +8915,13 @@
         <v>286054</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>315</v>
+        <v>464</v>
       </c>
       <c r="H14" s="7">
         <v>474</v>
@@ -8912,13 +8930,13 @@
         <v>338083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>523</v>
+        <v>413</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>360</v>
       </c>
       <c r="M14" s="7">
         <v>782</v>
@@ -8927,13 +8945,13 @@
         <v>624136</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>524</v>
+        <v>444</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9007,7 +9025,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9037,7 +9055,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9052,13 +9070,13 @@
         <v>29447</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="H17" s="7">
         <v>64</v>
@@ -9067,13 +9085,13 @@
         <v>28633</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>531</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>47</v>
+        <v>336</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -9082,13 +9100,13 @@
         <v>58081</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>532</v>
+        <v>338</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9103,13 +9121,13 @@
         <v>292793</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>542</v>
       </c>
       <c r="H18" s="7">
         <v>535</v>
@@ -9118,13 +9136,13 @@
         <v>399923</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>55</v>
+        <v>343</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>538</v>
+        <v>196</v>
       </c>
       <c r="M18" s="7">
         <v>786</v>
@@ -9133,13 +9151,13 @@
         <v>692715</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>539</v>
+        <v>346</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9213,7 +9231,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9222,13 +9240,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9237,13 +9255,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9258,13 +9276,13 @@
         <v>17493</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H21" s="7">
         <v>73</v>
@@ -9273,13 +9291,13 @@
         <v>30021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>551</v>
+        <v>288</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>472</v>
+        <v>555</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>556</v>
       </c>
       <c r="M21" s="7">
         <v>102</v>
@@ -9288,13 +9306,13 @@
         <v>47514</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>69</v>
+        <v>558</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9309,13 +9327,13 @@
         <v>179255</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H22" s="7">
         <v>417</v>
@@ -9324,13 +9342,13 @@
         <v>201026</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="M22" s="7">
         <v>667</v>
@@ -9339,13 +9357,13 @@
         <v>380280</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9419,7 +9437,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9434,7 +9452,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9449,7 +9467,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>565</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9464,13 +9482,13 @@
         <v>39398</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -9479,13 +9497,13 @@
         <v>27716</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>325</v>
+        <v>574</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -9494,13 +9512,13 @@
         <v>67114</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>572</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9515,13 +9533,13 @@
         <v>237825</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H26" s="7">
         <v>393</v>
@@ -9530,13 +9548,13 @@
         <v>247188</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>576</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="M26" s="7">
         <v>691</v>
@@ -9545,13 +9563,13 @@
         <v>485013</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9655,7 +9673,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9670,13 +9688,13 @@
         <v>58389</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>210</v>
+        <v>585</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H29" s="7">
         <v>75</v>
@@ -9685,13 +9703,13 @@
         <v>43499</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>426</v>
+        <v>588</v>
       </c>
       <c r="M29" s="7">
         <v>143</v>
@@ -9700,13 +9718,13 @@
         <v>101888</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9721,13 +9739,13 @@
         <v>563397</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>219</v>
+        <v>593</v>
       </c>
       <c r="H30" s="7">
         <v>883</v>
@@ -9736,13 +9754,13 @@
         <v>759363</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>431</v>
+        <v>594</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="M30" s="7">
         <v>1410</v>
@@ -9751,13 +9769,13 @@
         <v>1322759</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9831,7 +9849,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9846,7 +9864,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9861,7 +9879,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>527</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9876,13 +9894,13 @@
         <v>62661</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>451</v>
+        <v>602</v>
       </c>
       <c r="H33" s="7">
         <v>82</v>
@@ -9891,13 +9909,13 @@
         <v>53927</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>595</v>
+        <v>126</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>151</v>
+        <v>604</v>
       </c>
       <c r="M33" s="7">
         <v>162</v>
@@ -9906,13 +9924,13 @@
         <v>116588</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9927,13 +9945,13 @@
         <v>796767</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>459</v>
+        <v>608</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="H34" s="7">
         <v>979</v>
@@ -9942,13 +9960,13 @@
         <v>811745</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="M34" s="7">
         <v>1661</v>
@@ -9957,13 +9975,13 @@
         <v>1608512</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>603</v>
+        <v>200</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>605</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10037,7 +10055,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10046,13 +10064,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10061,13 +10079,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10082,13 +10100,13 @@
         <v>317056</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>611</v>
+        <v>153</v>
       </c>
       <c r="H37" s="7">
         <v>543</v>
@@ -10097,13 +10115,13 @@
         <v>288458</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="M37" s="7">
         <v>968</v>
@@ -10112,13 +10130,13 @@
         <v>605514</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>312</v>
+        <v>620</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10133,13 +10151,13 @@
         <v>3060550</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>615</v>
+        <v>161</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="H38" s="7">
         <v>4814</v>
@@ -10148,13 +10166,13 @@
         <v>3513109</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>354</v>
+        <v>622</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>618</v>
+        <v>398</v>
       </c>
       <c r="M38" s="7">
         <v>7759</v>
@@ -10163,13 +10181,13 @@
         <v>6573659</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>230</v>
+        <v>625</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10225,7 +10243,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1402-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D8EBC8-D83C-4223-AB53-328CC8762D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73FD05C4-5B9B-4F41-9CF8-F199A78FFA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3652671-F39A-40E0-98B6-7AEFBDE23542}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E6A6629-CEC5-46AF-84FC-F973CF0050FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="626">
   <si>
     <t>Población con diagnóstico de diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1803 +95,1809 @@
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,3%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
     <t>7,53%</t>
   </si>
   <si>
@@ -1904,22 +1910,13 @@
     <t>7,76%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
     <t>91,65%</t>
   </si>
   <si>
-    <t>89,08%</t>
-  </si>
-  <si>
     <t>91,17%</t>
   </si>
   <si>
     <t>89,92%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050CE097-8D56-4B7B-80EA-35E258202E8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440D6B59-F070-4FAC-9569-4C5DF2B94AC9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3760,10 +3757,10 @@
         <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -3772,13 +3769,13 @@
         <v>88283</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3790,13 @@
         <v>575422</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H30" s="7">
         <v>571</v>
@@ -3808,13 +3805,13 @@
         <v>589541</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="M30" s="7">
         <v>1128</v>
@@ -3823,13 +3820,13 @@
         <v>1164963</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,7 +3882,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3933,7 +3930,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3945,13 @@
         <v>49591</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H33" s="7">
         <v>47</v>
@@ -3963,13 +3960,13 @@
         <v>51633</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="M33" s="7">
         <v>98</v>
@@ -3978,13 +3975,13 @@
         <v>101224</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3996,13 @@
         <v>694204</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H34" s="7">
         <v>698</v>
@@ -4014,13 +4011,13 @@
         <v>731878</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M34" s="7">
         <v>1383</v>
@@ -4029,13 +4026,13 @@
         <v>1426082</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,7 +4106,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4124,7 +4121,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4139,7 +4136,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4151,13 @@
         <v>185467</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H37" s="7">
         <v>224</v>
@@ -4169,13 +4166,13 @@
         <v>229249</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="M37" s="7">
         <v>416</v>
@@ -4184,13 +4181,13 @@
         <v>414716</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,16 +4199,16 @@
         <v>3022</v>
       </c>
       <c r="D38" s="7">
-        <v>3091077</v>
+        <v>3091076</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H38" s="7">
         <v>3073</v>
@@ -4220,13 +4217,13 @@
         <v>3149949</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M38" s="7">
         <v>6095</v>
@@ -4235,13 +4232,13 @@
         <v>6241025</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,7 +4250,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>34</v>
@@ -4297,7 +4294,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4321,7 +4318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758ABC36-8BE3-438A-AE92-F1AC9A73404D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBFBC68-C728-49FC-AA0A-BC5261D3D2A5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4338,7 +4335,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4443,39 +4440,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,39 +4485,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,39 +4530,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,39 +4575,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,7 +4645,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4678,13 +4675,13 @@
         <v>35916</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H9" s="7">
         <v>54</v>
@@ -4693,13 +4690,13 @@
         <v>57653</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M9" s="7">
         <v>86</v>
@@ -4708,13 +4705,13 @@
         <v>93569</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,13 +4726,13 @@
         <v>469611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>426</v>
@@ -4744,13 +4741,13 @@
         <v>466112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>866</v>
@@ -4759,13 +4756,13 @@
         <v>935723</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>221</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,7 +4836,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4854,7 +4851,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4884,13 +4881,13 @@
         <v>32415</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -4899,13 +4896,13 @@
         <v>35128</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -4914,13 +4911,13 @@
         <v>67543</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,13 +4932,13 @@
         <v>291631</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>285</v>
@@ -4950,13 +4947,13 @@
         <v>305892</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
         <v>574</v>
@@ -4965,13 +4962,13 @@
         <v>597523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,7 +5072,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5087,13 @@
         <v>44575</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -5105,13 +5102,13 @@
         <v>51315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -5120,13 +5117,13 @@
         <v>95890</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5138,13 @@
         <v>624145</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H18" s="7">
         <v>577</v>
@@ -5156,13 +5153,13 @@
         <v>624881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="M18" s="7">
         <v>1162</v>
@@ -5171,13 +5168,13 @@
         <v>1249026</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,7 +5248,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5266,7 +5263,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5296,13 +5293,13 @@
         <v>19957</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -5311,13 +5308,13 @@
         <v>27957</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="M21" s="7">
         <v>45</v>
@@ -5326,13 +5323,13 @@
         <v>47914</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5344,13 @@
         <v>192661</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="H22" s="7">
         <v>185</v>
@@ -5362,13 +5359,13 @@
         <v>191634</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -5377,13 +5374,13 @@
         <v>384295</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,7 +5454,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5502,13 +5499,13 @@
         <v>20425</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -5517,13 +5514,13 @@
         <v>28451</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>275</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -5532,13 +5529,13 @@
         <v>48876</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5550,13 @@
         <v>253556</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>241</v>
@@ -5568,13 +5565,13 @@
         <v>249645</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="M26" s="7">
         <v>482</v>
@@ -5583,13 +5580,13 @@
         <v>503201</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,7 +5690,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5705,13 @@
         <v>54454</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -5723,13 +5720,13 @@
         <v>58241</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M29" s="7">
         <v>106</v>
@@ -5738,13 +5735,13 @@
         <v>112695</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5756,13 @@
         <v>608334</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="H30" s="7">
         <v>581</v>
@@ -5774,13 +5771,13 @@
         <v>635612</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="M30" s="7">
         <v>1148</v>
@@ -5789,13 +5786,13 @@
         <v>1243946</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,7 +5848,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5869,7 +5866,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5884,7 +5881,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5899,7 +5896,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5911,13 @@
         <v>49384</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="H33" s="7">
         <v>45</v>
@@ -5929,13 +5926,13 @@
         <v>48458</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>322</v>
+        <v>88</v>
       </c>
       <c r="M33" s="7">
         <v>89</v>
@@ -5944,13 +5941,13 @@
         <v>97843</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +5962,13 @@
         <v>729714</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H34" s="7">
         <v>711</v>
@@ -5980,13 +5977,13 @@
         <v>774120</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>330</v>
+        <v>96</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="M34" s="7">
         <v>1384</v>
@@ -5995,13 +5992,13 @@
         <v>1503833</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,7 +6072,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6090,7 +6087,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6105,7 +6102,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6117,13 @@
         <v>257126</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H37" s="7">
         <v>290</v>
@@ -6135,13 +6132,13 @@
         <v>307203</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>337</v>
+        <v>166</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="M37" s="7">
         <v>526</v>
@@ -6150,13 +6147,13 @@
         <v>564329</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>213</v>
+        <v>328</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6168,13 @@
         <v>3169653</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H38" s="7">
         <v>3006</v>
@@ -6186,28 +6183,28 @@
         <v>3247895</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>344</v>
+        <v>173</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="M38" s="7">
         <v>5979</v>
       </c>
       <c r="N38" s="7">
-        <v>6417549</v>
+        <v>6417548</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,7 +6246,7 @@
         <v>6505</v>
       </c>
       <c r="N39" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>34</v>
@@ -6263,7 +6260,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -6287,7 +6284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C300E4E6-21F6-4D7A-925D-D02D7B6CC076}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03990818-A4D6-45DA-93A3-0BD22F0CF4E7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6304,7 +6301,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6432,7 +6429,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6447,7 +6444,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6459,13 @@
         <v>21184</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -6477,13 +6474,13 @@
         <v>15406</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -6492,13 +6489,13 @@
         <v>36590</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>47</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,13 +6510,13 @@
         <v>272577</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="H6" s="7">
         <v>263</v>
@@ -6528,13 +6525,13 @@
         <v>273297</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="M6" s="7">
         <v>509</v>
@@ -6543,13 +6540,13 @@
         <v>545874</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>55</v>
+        <v>354</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,7 +6620,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6638,7 +6635,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6668,13 +6665,13 @@
         <v>38432</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -6683,13 +6680,13 @@
         <v>56334</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>297</v>
+        <v>360</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="M9" s="7">
         <v>87</v>
@@ -6698,13 +6695,13 @@
         <v>94765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,13 +6716,13 @@
         <v>464143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>435</v>
@@ -6734,13 +6731,13 @@
         <v>466750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>872</v>
@@ -6749,13 +6746,13 @@
         <v>930894</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,7 +6841,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6859,7 +6856,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,13 +6871,13 @@
         <v>14513</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -6889,13 +6886,13 @@
         <v>24522</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -6904,13 +6901,13 @@
         <v>39035</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,13 +6922,13 @@
         <v>304052</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>310</v>
@@ -6940,13 +6937,13 @@
         <v>311787</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>400</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>628</v>
@@ -6955,13 +6952,13 @@
         <v>615839</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,7 +7032,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7065,7 +7062,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,13 +7077,13 @@
         <v>44503</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -7095,13 +7092,13 @@
         <v>26270</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -7110,13 +7107,13 @@
         <v>70773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,13 +7128,13 @@
         <v>325461</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="H18" s="7">
         <v>334</v>
@@ -7146,13 +7143,13 @@
         <v>361013</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>642</v>
@@ -7161,13 +7158,13 @@
         <v>686474</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,7 +7238,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7256,7 +7253,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7271,7 +7268,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7286,13 +7283,13 @@
         <v>13041</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -7301,13 +7298,13 @@
         <v>19600</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>227</v>
+        <v>414</v>
       </c>
       <c r="M21" s="7">
         <v>33</v>
@@ -7316,13 +7313,13 @@
         <v>32641</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>153</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,13 +7334,13 @@
         <v>198180</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -7352,13 +7349,13 @@
         <v>198987</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>235</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>402</v>
@@ -7367,13 +7364,13 @@
         <v>397167</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>423</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,7 +7444,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7462,7 +7459,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7492,13 +7489,13 @@
         <v>18203</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -7507,13 +7504,13 @@
         <v>19379</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>209</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -7522,13 +7519,13 @@
         <v>37582</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>89</v>
+        <v>431</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7543,13 +7540,13 @@
         <v>244920</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="H26" s="7">
         <v>246</v>
@@ -7558,13 +7555,13 @@
         <v>253736</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>216</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="M26" s="7">
         <v>485</v>
@@ -7573,13 +7570,13 @@
         <v>498656</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>98</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,7 +7650,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7698,13 +7695,13 @@
         <v>74272</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="H29" s="7">
         <v>50</v>
@@ -7713,13 +7710,13 @@
         <v>60780</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>148</v>
+        <v>445</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>375</v>
+        <v>446</v>
       </c>
       <c r="M29" s="7">
         <v>117</v>
@@ -7728,13 +7725,13 @@
         <v>135053</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>295</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>259</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,13 +7746,13 @@
         <v>582286</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H30" s="7">
         <v>596</v>
@@ -7764,13 +7761,13 @@
         <v>630514</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>382</v>
+        <v>452</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>157</v>
+        <v>453</v>
       </c>
       <c r="M30" s="7">
         <v>1109</v>
@@ -7779,13 +7776,13 @@
         <v>1212799</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>462</v>
+        <v>303</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>464</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,7 +7838,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7874,7 +7871,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7889,7 +7886,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7904,13 +7901,13 @@
         <v>73568</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>466</v>
+        <v>363</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="H33" s="7">
         <v>62</v>
@@ -7919,13 +7916,13 @@
         <v>74888</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>154</v>
+        <v>458</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="M33" s="7">
         <v>138</v>
@@ -7934,13 +7931,13 @@
         <v>148456</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>472</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7955,13 +7952,13 @@
         <v>705015</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>475</v>
+        <v>373</v>
       </c>
       <c r="H34" s="7">
         <v>693</v>
@@ -7970,13 +7967,13 @@
         <v>751279</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>163</v>
+        <v>466</v>
       </c>
       <c r="M34" s="7">
         <v>1367</v>
@@ -7985,13 +7982,13 @@
         <v>1456294</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,7 +8062,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8080,7 +8077,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8095,7 +8092,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8107,13 @@
         <v>297716</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>173</v>
+        <v>469</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H37" s="7">
         <v>257</v>
@@ -8125,13 +8122,13 @@
         <v>297179</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>319</v>
+        <v>472</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>482</v>
+        <v>328</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="M37" s="7">
         <v>555</v>
@@ -8140,13 +8137,13 @@
         <v>594895</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>336</v>
+        <v>474</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>107</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,13 +8158,13 @@
         <v>3096634</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>180</v>
+        <v>477</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H38" s="7">
         <v>3081</v>
@@ -8176,13 +8173,13 @@
         <v>3247363</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>327</v>
+        <v>480</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>487</v>
+        <v>336</v>
       </c>
       <c r="M38" s="7">
         <v>6014</v>
@@ -8191,13 +8188,13 @@
         <v>6343997</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>343</v>
+        <v>482</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>115</v>
+        <v>483</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8253,7 +8250,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -8277,7 +8274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE40BEB-426E-4283-A0B9-9C7A9C75A193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C393B10B-11FF-438F-9C19-CD52D37CE60D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8294,7 +8291,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8407,7 +8404,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8437,7 +8434,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8452,13 +8449,13 @@
         <v>30300</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
@@ -8467,13 +8464,13 @@
         <v>21795</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>491</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M5" s="7">
         <v>94</v>
@@ -8482,13 +8479,13 @@
         <v>52095</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8503,13 +8500,13 @@
         <v>229998</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H6" s="7">
         <v>488</v>
@@ -8518,13 +8515,13 @@
         <v>249608</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>198</v>
+        <v>501</v>
       </c>
       <c r="M6" s="7">
         <v>775</v>
@@ -8533,13 +8530,13 @@
         <v>479605</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8628,7 +8625,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8643,7 +8640,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8658,13 +8655,13 @@
         <v>43765</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H9" s="7">
         <v>71</v>
@@ -8673,13 +8670,13 @@
         <v>47667</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>510</v>
+        <v>206</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>511</v>
+        <v>189</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="M9" s="7">
         <v>110</v>
@@ -8688,13 +8685,13 @@
         <v>91431</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8709,13 +8706,13 @@
         <v>474462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>295</v>
+        <v>513</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H10" s="7">
         <v>645</v>
@@ -8724,13 +8721,13 @@
         <v>506174</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>517</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>519</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>987</v>
@@ -8739,13 +8736,13 @@
         <v>980637</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8849,7 +8846,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8864,13 +8861,13 @@
         <v>35603</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -8879,13 +8876,13 @@
         <v>35201</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>113</v>
@@ -8894,13 +8891,13 @@
         <v>70804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>438</v>
+        <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8915,13 +8912,13 @@
         <v>286054</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="H14" s="7">
         <v>474</v>
@@ -8930,13 +8927,13 @@
         <v>338083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>782</v>
@@ -8945,13 +8942,13 @@
         <v>624136</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>444</v>
+        <v>366</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9025,7 +9022,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9055,7 +9052,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9070,13 +9067,13 @@
         <v>29447</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="H17" s="7">
         <v>64</v>
@@ -9085,13 +9082,13 @@
         <v>28633</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>187</v>
+        <v>536</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>336</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -9100,13 +9097,13 @@
         <v>58081</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9121,13 +9118,13 @@
         <v>292793</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="H18" s="7">
         <v>535</v>
@@ -9136,13 +9133,13 @@
         <v>399923</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M18" s="7">
         <v>786</v>
@@ -9151,7 +9148,7 @@
         <v>692715</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>544</v>
@@ -9231,7 +9228,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9240,13 +9237,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9255,13 +9252,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9276,13 +9273,13 @@
         <v>17493</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="H21" s="7">
         <v>73</v>
@@ -9291,13 +9288,13 @@
         <v>30021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>288</v>
+        <v>508</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="M21" s="7">
         <v>102</v>
@@ -9306,13 +9303,13 @@
         <v>47514</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9327,13 +9324,13 @@
         <v>179255</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="H22" s="7">
         <v>417</v>
@@ -9342,13 +9339,13 @@
         <v>201026</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="M22" s="7">
         <v>667</v>
@@ -9357,13 +9354,13 @@
         <v>380280</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9437,7 +9434,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9452,7 +9449,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9461,13 +9458,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9482,13 +9479,13 @@
         <v>39398</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -9497,13 +9494,13 @@
         <v>27716</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M25" s="7">
         <v>139</v>
@@ -9512,13 +9509,13 @@
         <v>67114</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9539,7 +9536,7 @@
         <v>578</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>579</v>
+        <v>372</v>
       </c>
       <c r="H26" s="7">
         <v>393</v>
@@ -9548,13 +9545,13 @@
         <v>247188</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>161</v>
+        <v>579</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>580</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>488</v>
+        <v>581</v>
       </c>
       <c r="M26" s="7">
         <v>691</v>
@@ -9563,13 +9560,13 @@
         <v>485013</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9673,7 +9670,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9688,13 +9685,13 @@
         <v>58389</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H29" s="7">
         <v>75</v>
@@ -9703,13 +9700,13 @@
         <v>43499</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>588</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M29" s="7">
         <v>143</v>
@@ -9718,13 +9715,13 @@
         <v>101888</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>591</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9739,13 +9736,13 @@
         <v>563397</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H30" s="7">
         <v>883</v>
@@ -9754,13 +9751,13 @@
         <v>759363</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>183</v>
+        <v>595</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M30" s="7">
         <v>1410</v>
@@ -9769,13 +9766,13 @@
         <v>1322759</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>597</v>
+        <v>331</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9831,7 +9828,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9849,7 +9846,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9864,7 +9861,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9879,7 +9876,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9894,13 +9891,13 @@
         <v>62661</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H33" s="7">
         <v>82</v>
@@ -9909,13 +9906,13 @@
         <v>53927</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>126</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M33" s="7">
         <v>162</v>
@@ -9924,13 +9921,13 @@
         <v>116588</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9945,13 +9942,13 @@
         <v>796767</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H34" s="7">
         <v>979</v>
@@ -9960,10 +9957,10 @@
         <v>811745</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>611</v>
+        <v>370</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>612</v>
@@ -9975,13 +9972,13 @@
         <v>1608512</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>200</v>
+        <v>383</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>613</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>162</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10055,7 +10052,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10064,10 +10061,10 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>17</v>
@@ -10079,13 +10076,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10100,13 +10097,13 @@
         <v>317056</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>591</v>
+        <v>324</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>153</v>
+        <v>618</v>
       </c>
       <c r="H37" s="7">
         <v>543</v>
@@ -10115,13 +10112,13 @@
         <v>288458</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M37" s="7">
         <v>968</v>
@@ -10130,13 +10127,13 @@
         <v>605514</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>621</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10151,13 +10148,13 @@
         <v>3060550</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>161</v>
+        <v>579</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>597</v>
+        <v>331</v>
       </c>
       <c r="H38" s="7">
         <v>4814</v>
@@ -10166,13 +10163,13 @@
         <v>3513109</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>623</v>
+        <v>280</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="M38" s="7">
         <v>7759</v>
@@ -10187,7 +10184,7 @@
         <v>625</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>626</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10243,7 +10240,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1402-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{245AA01B-B6AC-4E22-B5AA-E3E626CA51D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B791C0B-5217-4039-B789-09AA8D04E78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B4536FC-FE25-4550-8D85-BB057A71FF0B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D488D351-9A32-449A-BBB6-F5D5813308B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="574">
   <si>
     <t>Población con diagnóstico de diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -569,7 +569,46 @@
     <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>7,1%</t>
@@ -674,1054 +713,1054 @@
     <t>92,28%</t>
   </si>
   <si>
-    <t>4,86%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>91,31%</t>
   </si>
   <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE4575E-70BC-46FF-9E48-09DFA4FB650E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77093E6-83FB-4092-AAF0-9623013875E8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3545,7 +3584,7 @@
         <v>3022</v>
       </c>
       <c r="D29" s="7">
-        <v>3091077</v>
+        <v>3091076</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>166</v>
@@ -3560,7 +3599,7 @@
         <v>3073</v>
       </c>
       <c r="I29" s="7">
-        <v>3149949</v>
+        <v>3149948</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>169</v>
@@ -3575,7 +3614,7 @@
         <v>6095</v>
       </c>
       <c r="N29" s="7">
-        <v>6241024</v>
+        <v>6241025</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>172</v>
@@ -3596,7 +3635,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -3611,7 +3650,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>28</v>
@@ -3626,7 +3665,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -3664,7 +3703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3FA4F5-2EA1-488F-987E-EDA3898558DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E75FB1-1597-4E29-A6DA-79782DD73635}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3782,43 +3821,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D4" s="7">
+        <v>21169</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18438</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="N4" s="7">
+        <v>39607</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,43 +3872,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>263</v>
+      </c>
+      <c r="D5" s="7">
+        <v>273569</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>238</v>
+      </c>
+      <c r="I5" s="7">
+        <v>268807</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>501</v>
+      </c>
+      <c r="N5" s="7">
+        <v>542376</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,43 +3923,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3982,13 @@
         <v>35916</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -3940,13 +3997,13 @@
         <v>57653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>86</v>
@@ -3955,13 +4012,13 @@
         <v>93569</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +4033,13 @@
         <v>469611</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="H8" s="7">
         <v>426</v>
@@ -3991,10 +4048,10 @@
         <v>466112</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>141</v>
@@ -4006,13 +4063,13 @@
         <v>935723</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4137,13 @@
         <v>32415</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -4095,13 +4152,13 @@
         <v>35128</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>62</v>
@@ -4110,13 +4167,13 @@
         <v>67543</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4188,13 @@
         <v>291631</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>285</v>
@@ -4146,13 +4203,13 @@
         <v>305892</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>574</v>
@@ -4161,13 +4218,13 @@
         <v>597523</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,49 +4286,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>44575</v>
+        <v>23405</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="H13" s="7">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>51315</v>
+        <v>32877</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N13" s="7">
-        <v>95890</v>
+        <v>56282</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,49 +4337,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>585</v>
+        <v>322</v>
       </c>
       <c r="D14" s="7">
-        <v>624145</v>
+        <v>350577</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
-        <v>577</v>
+        <v>339</v>
       </c>
       <c r="I14" s="7">
-        <v>624881</v>
+        <v>356074</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
-        <v>1162</v>
+        <v>661</v>
       </c>
       <c r="N14" s="7">
-        <v>1249026</v>
+        <v>706651</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,10 +4388,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -4346,10 +4403,10 @@
         <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -4361,10 +4418,10 @@
         <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -4390,13 +4447,13 @@
         <v>19957</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>132</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -4405,13 +4462,13 @@
         <v>27957</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -4420,13 +4477,13 @@
         <v>47914</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,10 +4498,10 @@
         <v>192661</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>142</v>
@@ -4456,13 +4513,13 @@
         <v>191634</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>363</v>
@@ -4471,13 +4528,13 @@
         <v>384295</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4602,13 @@
         <v>20425</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -4560,13 +4617,13 @@
         <v>28451</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -4575,13 +4632,13 @@
         <v>48876</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4653,13 @@
         <v>253556</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>241</v>
@@ -4611,13 +4668,13 @@
         <v>249645</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>482</v>
@@ -4626,10 +4683,10 @@
         <v>503201</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>122</v>
@@ -4700,13 +4757,13 @@
         <v>54454</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -4718,10 +4775,10 @@
         <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -4730,13 +4787,13 @@
         <v>112695</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4808,13 @@
         <v>608334</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>581</v>
@@ -4769,10 +4826,10 @@
         <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="M23" s="7">
         <v>1148</v>
@@ -4781,13 +4838,13 @@
         <v>1243946</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4912,13 @@
         <v>49384</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -4870,13 +4927,13 @@
         <v>48458</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>89</v>
@@ -4885,13 +4942,13 @@
         <v>97843</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>212</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,13 +4963,13 @@
         <v>729714</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>711</v>
@@ -4921,13 +4978,13 @@
         <v>774120</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>1384</v>
@@ -4936,10 +4993,10 @@
         <v>1503833</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>168</v>
@@ -5010,13 +5067,13 @@
         <v>257126</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H28" s="7">
         <v>290</v>
@@ -5025,13 +5082,13 @@
         <v>307203</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="M28" s="7">
         <v>526</v>
@@ -5040,13 +5097,13 @@
         <v>564329</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +5118,13 @@
         <v>3169653</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="H29" s="7">
         <v>3006</v>
@@ -5076,13 +5133,13 @@
         <v>3247895</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="M29" s="7">
         <v>5979</v>
@@ -5091,13 +5148,13 @@
         <v>6417548</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,7 +5234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7C844B-6C28-42BB-A56F-D7192F308F78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0234FDB1-C29E-41A3-9620-EC6B266E0306}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5194,7 +5251,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5301,13 +5358,13 @@
         <v>21184</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -5316,13 +5373,13 @@
         <v>15406</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -5331,13 +5388,13 @@
         <v>36590</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>68</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5409,13 @@
         <v>272577</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>263</v>
@@ -5367,13 +5424,13 @@
         <v>273297</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>509</v>
@@ -5382,10 +5439,10 @@
         <v>545874</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>77</v>
@@ -5456,13 +5513,13 @@
         <v>38432</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -5471,13 +5528,13 @@
         <v>56334</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>87</v>
@@ -5486,13 +5543,13 @@
         <v>94765</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5564,13 @@
         <v>464143</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>435</v>
@@ -5522,13 +5579,13 @@
         <v>466750</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>872</v>
@@ -5537,13 +5594,13 @@
         <v>930894</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,10 +5668,10 @@
         <v>14513</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>76</v>
@@ -5626,13 +5683,13 @@
         <v>24522</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -5644,10 +5701,10 @@
         <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5719,13 @@
         <v>304052</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>310</v>
@@ -5677,13 +5734,13 @@
         <v>311787</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>628</v>
@@ -5695,10 +5752,10 @@
         <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5823,13 @@
         <v>44503</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5784,10 +5841,10 @@
         <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -5796,13 +5853,13 @@
         <v>70773</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5874,13 @@
         <v>325461</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5835,10 +5892,10 @@
         <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>642</v>
@@ -5847,13 +5904,13 @@
         <v>686474</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5978,13 @@
         <v>13041</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -5936,13 +5993,13 @@
         <v>19600</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -5951,13 +6008,13 @@
         <v>32641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +6029,13 @@
         <v>198180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>204</v>
@@ -5987,13 +6044,13 @@
         <v>198987</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>402</v>
@@ -6002,10 +6059,10 @@
         <v>397167</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>152</v>
@@ -6076,13 +6133,13 @@
         <v>18203</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -6091,13 +6148,13 @@
         <v>19379</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -6106,7 +6163,7 @@
         <v>37582</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>106</v>
@@ -6127,13 +6184,13 @@
         <v>244920</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>246</v>
@@ -6142,10 +6199,10 @@
         <v>253736</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>118</v>
@@ -6157,7 +6214,7 @@
         <v>498656</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>97</v>
@@ -6231,13 +6288,13 @@
         <v>74272</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -6246,13 +6303,13 @@
         <v>60780</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -6261,13 +6318,13 @@
         <v>135053</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,13 +6339,13 @@
         <v>582286</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="H23" s="7">
         <v>596</v>
@@ -6297,13 +6354,13 @@
         <v>630514</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="M23" s="7">
         <v>1109</v>
@@ -6312,10 +6369,10 @@
         <v>1212799</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>141</v>
@@ -6386,13 +6443,13 @@
         <v>73568</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="H25" s="7">
         <v>62</v>
@@ -6401,13 +6458,13 @@
         <v>74888</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="M25" s="7">
         <v>138</v>
@@ -6416,13 +6473,13 @@
         <v>148456</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6494,13 @@
         <v>705015</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="H26" s="7">
         <v>693</v>
@@ -6452,13 +6509,13 @@
         <v>751279</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="M26" s="7">
         <v>1367</v>
@@ -6467,13 +6524,13 @@
         <v>1456294</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,13 +6598,13 @@
         <v>297716</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="H28" s="7">
         <v>257</v>
@@ -6556,13 +6613,13 @@
         <v>297179</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="M28" s="7">
         <v>555</v>
@@ -6571,13 +6628,13 @@
         <v>594895</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6592,13 +6649,13 @@
         <v>3096634</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="H29" s="7">
         <v>3081</v>
@@ -6607,13 +6664,13 @@
         <v>3247363</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="M29" s="7">
         <v>6014</v>
@@ -6622,13 +6679,13 @@
         <v>6343997</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,7 +6765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD52C42C-858C-4BDE-A894-7C12215A37C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6510E18E-B9E6-42E3-AF45-E3A44962CD44}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6725,7 +6782,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6829,46 +6886,46 @@
         <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>30300</v>
+        <v>33423</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>442</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>354</v>
+        <v>457</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
       </c>
       <c r="I4" s="7">
-        <v>21795</v>
+        <v>22322</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>443</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="M4" s="7">
         <v>94</v>
       </c>
       <c r="N4" s="7">
-        <v>52095</v>
+        <v>55745</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>460</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>447</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,46 +6937,46 @@
         <v>287</v>
       </c>
       <c r="D5" s="7">
-        <v>229998</v>
+        <v>278020</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>360</v>
+        <v>463</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>449</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>488</v>
       </c>
       <c r="I5" s="7">
-        <v>249608</v>
+        <v>267313</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>450</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="M5" s="7">
         <v>775</v>
       </c>
       <c r="N5" s="7">
-        <v>479605</v>
+        <v>545332</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>186</v>
+        <v>466</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>453</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,7 +6988,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -6946,7 +7003,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -6961,7 +7018,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -6984,46 +7041,46 @@
         <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>43765</v>
+        <v>41463</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>455</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
       </c>
       <c r="I7" s="7">
-        <v>47667</v>
+        <v>43467</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>457</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
       </c>
       <c r="N7" s="7">
-        <v>91431</v>
+        <v>84930</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>228</v>
+        <v>472</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>470</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>460</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,46 +7092,46 @@
         <v>342</v>
       </c>
       <c r="D8" s="7">
-        <v>474462</v>
+        <v>475930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>462</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>645</v>
       </c>
       <c r="I8" s="7">
-        <v>506174</v>
+        <v>470824</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>463</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="M8" s="7">
         <v>987</v>
       </c>
       <c r="N8" s="7">
-        <v>980637</v>
+        <v>946754</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>477</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>466</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,7 +7143,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -7101,7 +7158,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553841</v>
+        <v>514291</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -7116,7 +7173,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1072068</v>
+        <v>1031684</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -7139,46 +7196,46 @@
         <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>35603</v>
+        <v>34067</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>35201</v>
+        <v>32590</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
       </c>
       <c r="N10" s="7">
-        <v>70804</v>
+        <v>66657</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,46 +7247,46 @@
         <v>308</v>
       </c>
       <c r="D11" s="7">
-        <v>286054</v>
+        <v>281434</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>474</v>
       </c>
       <c r="I11" s="7">
-        <v>338083</v>
+        <v>316538</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>490</v>
       </c>
       <c r="M11" s="7">
         <v>782</v>
       </c>
       <c r="N11" s="7">
-        <v>624136</v>
+        <v>597972</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,7 +7298,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321657</v>
+        <v>315501</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -7256,7 +7313,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -7271,7 +7328,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>694940</v>
+        <v>664629</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -7294,46 +7351,46 @@
         <v>41</v>
       </c>
       <c r="D13" s="7">
-        <v>29447</v>
+        <v>27696</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>13</v>
+        <v>495</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>28633</v>
+        <v>26796</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>38</v>
+        <v>499</v>
       </c>
       <c r="M13" s="7">
         <v>105</v>
       </c>
       <c r="N13" s="7">
-        <v>58081</v>
+        <v>54492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>487</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,46 +7402,46 @@
         <v>251</v>
       </c>
       <c r="D14" s="7">
-        <v>292793</v>
+        <v>284861</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>504</v>
       </c>
       <c r="H14" s="7">
         <v>535</v>
       </c>
       <c r="I14" s="7">
-        <v>399923</v>
+        <v>448922</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>46</v>
+        <v>506</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="M14" s="7">
         <v>786</v>
       </c>
       <c r="N14" s="7">
-        <v>692715</v>
+        <v>733782</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,7 +7453,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -7411,7 +7468,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -7426,7 +7483,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -7449,46 +7506,46 @@
         <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>17493</v>
+        <v>15892</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
       </c>
       <c r="I16" s="7">
-        <v>30021</v>
+        <v>27194</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
       </c>
       <c r="N16" s="7">
-        <v>47514</v>
+        <v>43086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>501</v>
+        <v>344</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>502</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7500,46 +7557,46 @@
         <v>250</v>
       </c>
       <c r="D17" s="7">
-        <v>179255</v>
+        <v>162850</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="H17" s="7">
         <v>417</v>
       </c>
       <c r="I17" s="7">
-        <v>201025</v>
+        <v>180681</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="M17" s="7">
         <v>667</v>
       </c>
       <c r="N17" s="7">
-        <v>380280</v>
+        <v>343531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>510</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>512</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,7 +7608,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -7566,7 +7623,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231046</v>
+        <v>207875</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -7581,7 +7638,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427794</v>
+        <v>386617</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -7604,46 +7661,46 @@
         <v>73</v>
       </c>
       <c r="D19" s="7">
-        <v>39398</v>
+        <v>37617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>514</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="H19" s="7">
         <v>66</v>
       </c>
       <c r="I19" s="7">
-        <v>27716</v>
+        <v>25857</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>278</v>
+        <v>527</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>517</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
       </c>
       <c r="N19" s="7">
-        <v>67114</v>
+        <v>63474</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7655,46 +7712,46 @@
         <v>298</v>
       </c>
       <c r="D20" s="7">
-        <v>237825</v>
+        <v>232019</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>523</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>393</v>
       </c>
       <c r="I20" s="7">
-        <v>247189</v>
+        <v>230530</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>525</v>
+        <v>248</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>534</v>
       </c>
       <c r="M20" s="7">
         <v>691</v>
       </c>
       <c r="N20" s="7">
-        <v>485013</v>
+        <v>462549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,7 +7763,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -7721,7 +7778,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -7736,7 +7793,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -7759,46 +7816,46 @@
         <v>68</v>
       </c>
       <c r="D22" s="7">
-        <v>58389</v>
+        <v>55988</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>423</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
       </c>
       <c r="I22" s="7">
-        <v>43499</v>
+        <v>40124</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>539</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>541</v>
       </c>
       <c r="M22" s="7">
         <v>143</v>
       </c>
       <c r="N22" s="7">
-        <v>101888</v>
+        <v>96112</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>531</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,46 +7867,46 @@
         <v>527</v>
       </c>
       <c r="D23" s="7">
-        <v>563397</v>
+        <v>562020</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>233</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="H23" s="7">
         <v>883</v>
       </c>
       <c r="I23" s="7">
-        <v>759363</v>
+        <v>807947</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>545</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>389</v>
+        <v>546</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="M23" s="7">
         <v>1410</v>
       </c>
       <c r="N23" s="7">
-        <v>1322759</v>
+        <v>1369967</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>536</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,7 +7918,7 @@
         <v>595</v>
       </c>
       <c r="D24" s="7">
-        <v>621786</v>
+        <v>618008</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>28</v>
@@ -7876,7 +7933,7 @@
         <v>958</v>
       </c>
       <c r="I24" s="7">
-        <v>802862</v>
+        <v>848071</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>28</v>
@@ -7891,7 +7948,7 @@
         <v>1553</v>
       </c>
       <c r="N24" s="7">
-        <v>1424647</v>
+        <v>1466079</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>28</v>
@@ -7914,46 +7971,46 @@
         <v>80</v>
       </c>
       <c r="D25" s="7">
-        <v>62661</v>
+        <v>53723</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>340</v>
+        <v>550</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>408</v>
+        <v>552</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
       </c>
       <c r="I25" s="7">
-        <v>53927</v>
+        <v>45469</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>553</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="M25" s="7">
         <v>162</v>
       </c>
       <c r="N25" s="7">
-        <v>116588</v>
+        <v>99192</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>544</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7965,46 +8022,46 @@
         <v>682</v>
       </c>
       <c r="D26" s="7">
-        <v>796767</v>
+        <v>874997</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>558</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>416</v>
+        <v>559</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="H26" s="7">
         <v>979</v>
       </c>
       <c r="I26" s="7">
-        <v>811745</v>
+        <v>669923</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>561</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="M26" s="7">
         <v>1661</v>
       </c>
       <c r="N26" s="7">
-        <v>1608512</v>
+        <v>1544920</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>549</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,7 +8073,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>28</v>
@@ -8031,7 +8088,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>28</v>
@@ -8046,7 +8103,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>28</v>
@@ -8069,46 +8126,46 @@
         <v>425</v>
       </c>
       <c r="D28" s="7">
-        <v>317056</v>
+        <v>299869</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>225</v>
+        <v>566</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>551</v>
+        <v>76</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="H28" s="7">
         <v>543</v>
       </c>
       <c r="I28" s="7">
-        <v>288458</v>
+        <v>263819</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>212</v>
+        <v>568</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>275</v>
+        <v>555</v>
       </c>
       <c r="M28" s="7">
         <v>968</v>
       </c>
       <c r="N28" s="7">
-        <v>605514</v>
+        <v>563688</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>554</v>
+        <v>150</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>555</v>
+        <v>52</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>369</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8120,46 +8177,46 @@
         <v>2945</v>
       </c>
       <c r="D29" s="7">
-        <v>3060550</v>
+        <v>3152131</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>233</v>
+        <v>570</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>557</v>
+        <v>84</v>
       </c>
       <c r="H29" s="7">
         <v>4814</v>
       </c>
       <c r="I29" s="7">
-        <v>3513110</v>
+        <v>3392676</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>219</v>
+        <v>572</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>281</v>
+        <v>562</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="M29" s="7">
         <v>7759</v>
       </c>
       <c r="N29" s="7">
-        <v>6573658</v>
+        <v>6544807</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>559</v>
+        <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>376</v>
+        <v>570</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>560</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8171,7 +8228,7 @@
         <v>3370</v>
       </c>
       <c r="D30" s="7">
-        <v>3377606</v>
+        <v>3452000</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -8186,7 +8243,7 @@
         <v>5357</v>
       </c>
       <c r="I30" s="7">
-        <v>3801568</v>
+        <v>3656495</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>28</v>
@@ -8201,7 +8258,7 @@
         <v>8727</v>
       </c>
       <c r="N30" s="7">
-        <v>7179172</v>
+        <v>7108495</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
